--- a/input data/variable_lexicon.xlsx
+++ b/input data/variable_lexicon.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$P$408</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$N$1:$P$408</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$N$1:$P$408</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$L$1:$L$408</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$L$1:$L$400</definedName>
   </definedNames>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5033" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="1532">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -3775,12 +3775,15 @@
     <t xml:space="preserve">mental_health</t>
   </si>
   <si>
+    <t xml:space="preserve">Overall Mental Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall mental health</t>
+  </si>
+  <si>
     <t xml:space="preserve">Overall mental health</t>
   </si>
   <si>
-    <t xml:space="preserve">overall mental health</t>
-  </si>
-  <si>
     <t xml:space="preserve">poor, fair, good, excellent</t>
   </si>
   <si>
@@ -3799,10 +3802,13 @@
     <t xml:space="preserve">life_quality</t>
   </si>
   <si>
+    <t xml:space="preserve">Quality of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality of life</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quality of life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality of life</t>
   </si>
   <si>
     <t xml:space="preserve">life_quality_score</t>
@@ -4819,18 +4825,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ408"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8874" ySplit="0" topLeftCell="N1" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O384" activeCellId="0" sqref="O384"/>
+      <pane xSplit="13209" ySplit="0" topLeftCell="N1" activePane="topLeft" state="split"/>
+      <selection pane="topLeft" activeCell="B329" activeCellId="0" sqref="B329"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.73"/>
@@ -8528,7 +8534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>392</v>
       </c>
@@ -8645,7 +8651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>401</v>
       </c>
@@ -17203,7 +17209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>1190</v>
       </c>
@@ -17273,7 +17279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>1196</v>
       </c>
@@ -17308,7 +17314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>1200</v>
       </c>
@@ -17390,7 +17396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>1208</v>
       </c>
@@ -17881,7 +17887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>1248</v>
       </c>
@@ -17892,13 +17898,13 @@
         <v>1250</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H327" s="6" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>351</v>
@@ -17918,22 +17924,22 @@
       <c r="O327" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="P327" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P327" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G328" s="6"/>
       <c r="H328" s="6"/>
@@ -17941,7 +17947,7 @@
         <v>1216</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L328" s="1" t="s">
         <v>48</v>
@@ -17956,27 +17962,27 @@
         <v>20</v>
       </c>
       <c r="P328" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H329" s="6" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>351</v>
@@ -17996,22 +18002,22 @@
       <c r="O329" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="P329" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P329" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="G330" s="6"/>
       <c r="H330" s="6"/>
@@ -18019,7 +18025,7 @@
         <v>1216</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L330" s="1" t="s">
         <v>48</v>
@@ -18034,21 +18040,21 @@
         <v>20</v>
       </c>
       <c r="P330" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
@@ -18056,7 +18062,7 @@
         <v>1216</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L331" s="1" t="s">
         <v>48</v>
@@ -18071,18 +18077,18 @@
         <v>20</v>
       </c>
       <c r="P331" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E332" s="6" t="s">
         <v>1231</v>
@@ -18093,7 +18099,7 @@
         <v>1216</v>
       </c>
       <c r="K332" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L332" s="1" t="s">
         <v>48</v>
@@ -18108,24 +18114,24 @@
         <v>20</v>
       </c>
       <c r="P332" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>138</v>
@@ -18152,24 +18158,24 @@
         <v>20</v>
       </c>
       <c r="P333" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B334" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F334" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E334" s="6" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>1270</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>138</v>
@@ -18196,21 +18202,21 @@
         <v>20</v>
       </c>
       <c r="P334" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
@@ -18235,19 +18241,19 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>138</v>
@@ -18279,28 +18285,28 @@
     </row>
     <row r="337" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H337" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L337" s="1" t="s">
         <v>20</v>
@@ -18320,21 +18326,21 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="G338" s="6"/>
       <c r="H338" s="6"/>
       <c r="J338" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L338" s="1" t="s">
         <v>20</v>
@@ -18354,28 +18360,28 @@
     </row>
     <row r="339" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H339" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L339" s="1" t="s">
         <v>20</v>
@@ -18395,21 +18401,21 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
       <c r="J340" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L340" s="1" t="s">
         <v>20</v>
@@ -18429,28 +18435,28 @@
     </row>
     <row r="341" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H341" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L341" s="1" t="s">
         <v>20</v>
@@ -18470,21 +18476,21 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G342" s="6"/>
       <c r="H342" s="6"/>
       <c r="J342" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L342" s="1" t="s">
         <v>20</v>
@@ -18504,28 +18510,28 @@
     </row>
     <row r="343" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H343" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L343" s="1" t="s">
         <v>20</v>
@@ -18545,21 +18551,21 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
       <c r="J344" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L344" s="1" t="s">
         <v>20</v>
@@ -18579,28 +18585,28 @@
     </row>
     <row r="345" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H345" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L345" s="1" t="s">
         <v>20</v>
@@ -18620,21 +18626,21 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G346" s="6"/>
       <c r="H346" s="6"/>
       <c r="J346" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L346" s="1" t="s">
         <v>20</v>
@@ -18654,28 +18660,28 @@
     </row>
     <row r="347" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H347" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>20</v>
@@ -18695,21 +18701,21 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
       <c r="J348" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L348" s="1" t="s">
         <v>20</v>
@@ -18729,28 +18735,28 @@
     </row>
     <row r="349" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H349" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L349" s="1" t="s">
         <v>20</v>
@@ -18770,21 +18776,21 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G350" s="6"/>
       <c r="H350" s="6"/>
       <c r="J350" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L350" s="1" t="s">
         <v>20</v>
@@ -18804,28 +18810,28 @@
     </row>
     <row r="351" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H351" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L351" s="1" t="s">
         <v>20</v>
@@ -18845,21 +18851,21 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G352" s="6"/>
       <c r="H352" s="6"/>
       <c r="J352" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L352" s="1" t="s">
         <v>20</v>
@@ -18879,28 +18885,28 @@
     </row>
     <row r="353" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H353" s="6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L353" s="1" t="s">
         <v>20</v>
@@ -18920,21 +18926,21 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
       <c r="J354" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L354" s="1" t="s">
         <v>20</v>
@@ -18952,26 +18958,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
       <c r="J355" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L355" s="1" t="s">
         <v>20</v>
@@ -18986,24 +18992,24 @@
         <v>20</v>
       </c>
       <c r="P355" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G356" s="6" t="s">
         <v>138</v>
@@ -19015,7 +19021,7 @@
         <v>139</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L356" s="1" t="s">
         <v>20</v>
@@ -19030,21 +19036,21 @@
         <v>20</v>
       </c>
       <c r="P356" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>138</v>
@@ -19056,7 +19062,7 @@
         <v>139</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L357" s="1" t="s">
         <v>20</v>
@@ -19076,28 +19082,28 @@
     </row>
     <row r="358" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="H358" s="6" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>242</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L358" s="1" t="s">
         <v>20</v>
@@ -19117,21 +19123,21 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
       <c r="J359" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L359" s="1" t="s">
         <v>20</v>
@@ -19151,21 +19157,21 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G360" s="6"/>
       <c r="H360" s="6"/>
       <c r="J360" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L360" s="1" t="s">
         <v>20</v>
@@ -19185,16 +19191,16 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G361" s="0" t="s">
         <v>138</v>
@@ -19206,7 +19212,7 @@
         <v>139</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L361" s="1" t="s">
         <v>20</v>
@@ -19226,16 +19232,16 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G362" s="0" t="s">
         <v>138</v>
@@ -19247,7 +19253,7 @@
         <v>139</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L362" s="1" t="s">
         <v>20</v>
@@ -19267,16 +19273,16 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="G363" s="0" t="s">
         <v>138</v>
@@ -19288,7 +19294,7 @@
         <v>139</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L363" s="1" t="s">
         <v>20</v>
@@ -19308,16 +19314,16 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G364" s="0" t="s">
         <v>138</v>
@@ -19329,7 +19335,7 @@
         <v>139</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L364" s="1" t="s">
         <v>20</v>
@@ -19349,16 +19355,16 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G365" s="0" t="s">
         <v>138</v>
@@ -19370,7 +19376,7 @@
         <v>139</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L365" s="1" t="s">
         <v>20</v>
@@ -19390,21 +19396,21 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G366" s="0"/>
       <c r="H366" s="0"/>
       <c r="J366" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L366" s="1" t="s">
         <v>20</v>
@@ -19424,21 +19430,21 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G367" s="0"/>
       <c r="H367" s="0"/>
       <c r="J367" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L367" s="1" t="s">
         <v>20</v>
@@ -19458,16 +19464,16 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G368" s="0" t="s">
         <v>138</v>
@@ -19479,7 +19485,7 @@
         <v>139</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L368" s="1" t="s">
         <v>20</v>
@@ -19499,21 +19505,21 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B369" s="0" t="s">
         <v>1395</v>
       </c>
-      <c r="B369" s="0" t="s">
-        <v>1393</v>
-      </c>
       <c r="C369" s="0" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G369" s="0"/>
       <c r="H369" s="0"/>
       <c r="J369" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L369" s="1" t="s">
         <v>20</v>
@@ -19533,16 +19539,16 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G370" s="0" t="s">
         <v>138</v>
@@ -19554,7 +19560,7 @@
         <v>139</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L370" s="1" t="s">
         <v>20</v>
@@ -19574,21 +19580,21 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B371" s="0" t="s">
         <v>1400</v>
       </c>
-      <c r="B371" s="0" t="s">
-        <v>1398</v>
-      </c>
       <c r="C371" s="0" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G371" s="0"/>
       <c r="H371" s="0"/>
       <c r="J371" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L371" s="1" t="s">
         <v>20</v>
@@ -19608,16 +19614,16 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G372" s="0" t="s">
         <v>138</v>
@@ -19629,7 +19635,7 @@
         <v>139</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L372" s="1" t="s">
         <v>20</v>
@@ -19649,21 +19655,21 @@
     </row>
     <row r="373" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C373" s="0" t="s">
         <v>1406</v>
       </c>
-      <c r="B373" s="0" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C373" s="0" t="s">
-        <v>1404</v>
-      </c>
       <c r="E373" s="1" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G373" s="0"/>
       <c r="H373" s="0"/>
       <c r="J373" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L373" s="1" t="s">
         <v>20</v>
@@ -19683,16 +19689,16 @@
     </row>
     <row r="374" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G374" s="0" t="s">
         <v>138</v>
@@ -19704,7 +19710,7 @@
         <v>139</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L374" s="1" t="s">
         <v>20</v>
@@ -19724,21 +19730,21 @@
     </row>
     <row r="375" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G375" s="0"/>
       <c r="H375" s="0"/>
       <c r="J375" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L375" s="1" t="s">
         <v>20</v>
@@ -19758,16 +19764,16 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="G376" s="0" t="s">
         <v>138</v>
@@ -19779,7 +19785,7 @@
         <v>139</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L376" s="1" t="s">
         <v>20</v>
@@ -19799,21 +19805,21 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C377" s="0" t="s">
         <v>1420</v>
       </c>
-      <c r="B377" s="0" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C377" s="0" t="s">
-        <v>1418</v>
-      </c>
       <c r="E377" s="1" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="G377" s="0"/>
       <c r="H377" s="0"/>
       <c r="J377" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L377" s="1" t="s">
         <v>20</v>
@@ -19833,16 +19839,16 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="G378" s="0" t="s">
         <v>138</v>
@@ -19854,7 +19860,7 @@
         <v>139</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L378" s="1" t="s">
         <v>20</v>
@@ -19874,28 +19880,28 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B379" s="0" t="s">
         <v>1425</v>
       </c>
-      <c r="B379" s="0" t="s">
-        <v>1423</v>
-      </c>
       <c r="C379" s="0" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="G379" s="0" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="H379" s="0" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="I379" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L379" s="1" t="s">
         <v>20</v>
@@ -19915,16 +19921,16 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="G380" s="0" t="s">
         <v>138</v>
@@ -19936,7 +19942,7 @@
         <v>139</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L380" s="1" t="s">
         <v>20</v>
@@ -19956,28 +19962,28 @@
     </row>
     <row r="381" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="G381" s="0" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="H381" s="0" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="I381" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L381" s="1" t="s">
         <v>20</v>
@@ -19997,24 +20003,24 @@
     </row>
     <row r="382" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="G382" s="0"/>
       <c r="H382" s="0"/>
       <c r="J382" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L382" s="1" t="s">
         <v>20</v>
@@ -20032,18 +20038,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="G383" s="0" t="s">
         <v>138</v>
@@ -20055,7 +20061,7 @@
         <v>139</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L383" s="1" t="s">
         <v>20</v>
@@ -20073,18 +20079,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="G384" s="0" t="s">
         <v>138</v>
@@ -20096,7 +20102,7 @@
         <v>139</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L384" s="1" t="s">
         <v>20</v>
@@ -20116,21 +20122,21 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="G385" s="0"/>
       <c r="H385" s="0"/>
       <c r="J385" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L385" s="1" t="s">
         <v>20</v>
@@ -20148,33 +20154,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="G386" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I386" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L386" s="1" t="s">
         <v>20</v>
@@ -20194,16 +20200,16 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="F387" s="1" t="n">
         <v>50</v>
@@ -20218,7 +20224,7 @@
         <v>139</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="L387" s="1" t="s">
         <v>20</v>
@@ -20238,16 +20244,16 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="G388" s="0" t="s">
         <v>138</v>
@@ -20259,7 +20265,7 @@
         <v>43</v>
       </c>
       <c r="J388" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="L388" s="1" t="s">
         <v>20</v>
@@ -20279,21 +20285,21 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="G389" s="0"/>
       <c r="H389" s="0"/>
       <c r="J389" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="L389" s="1" t="s">
         <v>20</v>
@@ -20313,16 +20319,16 @@
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="G390" s="0" t="s">
         <v>138</v>
@@ -20334,7 +20340,7 @@
         <v>43</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="L390" s="1" t="s">
         <v>20</v>
@@ -20354,21 +20360,21 @@
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="G391" s="0"/>
       <c r="H391" s="0"/>
       <c r="J391" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="L391" s="1" t="s">
         <v>20</v>
@@ -20388,16 +20394,16 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="J392" s="1" t="s">
         <v>25</v>
@@ -20420,22 +20426,22 @@
     </row>
     <row r="393" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>1476</v>
-      </c>
       <c r="E393" s="1" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="I393" s="1" t="s">
         <v>53</v>
@@ -20461,16 +20467,16 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="G394" s="0" t="s">
         <v>34</v>
@@ -20479,7 +20485,7 @@
         <v>34</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="J394" s="1" t="s">
         <v>25</v>
@@ -20502,25 +20508,25 @@
     </row>
     <row r="395" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>87</v>
@@ -20543,7 +20549,7 @@
     </row>
     <row r="396" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>1191</v>
@@ -20552,13 +20558,13 @@
         <v>1191</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="I396" s="1" t="s">
         <v>53</v>
@@ -20584,7 +20590,7 @@
     </row>
     <row r="397" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1197</v>
@@ -20593,13 +20599,13 @@
         <v>1198</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="I397" s="1" t="s">
         <v>242</v>
@@ -20625,28 +20631,28 @@
     </row>
     <row r="398" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="I398" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J398" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L398" s="1" t="s">
         <v>20</v>
@@ -20666,34 +20672,34 @@
     </row>
     <row r="399" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="I399" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J399" s="1" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="K399" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L399" s="1" t="s">
         <v>20</v>
@@ -20713,16 +20719,16 @@
     </row>
     <row r="400" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>87</v>
@@ -20745,19 +20751,19 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L401" s="1" t="s">
         <v>20</v>
@@ -20777,19 +20783,19 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="J402" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L402" s="1" t="s">
         <v>20</v>
@@ -20809,30 +20815,30 @@
     </row>
     <row r="403" s="8" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="2" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J403" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="2" t="s">
@@ -20857,30 +20863,30 @@
     </row>
     <row r="404" s="8" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" s="2" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>242</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2" t="s">
@@ -20903,21 +20909,21 @@
       <c r="AMI404" s="7"/>
       <c r="AMJ404" s="7"/>
     </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="J405" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L405" s="1" t="s">
         <v>20</v>
@@ -20935,21 +20941,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="J406" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L406" s="1" t="s">
         <v>20</v>
@@ -20967,30 +20973,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="I407" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L407" s="1" t="s">
         <v>20</v>
@@ -21008,30 +21014,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="I408" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J408" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L408" s="1" t="s">
         <v>20</v>
@@ -21050,30 +21056,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P408">
-    <filterColumn colId="13">
-      <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="13"/>
-        <filter val="16"/>
-        <filter val="17"/>
-        <filter val="18"/>
-        <filter val="19"/>
-        <filter val="22"/>
-        <filter val="23"/>
-        <filter val="24"/>
-        <filter val="25"/>
-        <filter val="26"/>
-        <filter val="27"/>
-        <filter val="28"/>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P408"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input data/variable_lexicon.xlsx
+++ b/input data/variable_lexicon.xlsx
@@ -4825,18 +4825,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ408"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="13209" ySplit="0" topLeftCell="N1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B329" activeCellId="0" sqref="B329"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F32" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="14036" ySplit="0" topLeftCell="M32" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+      <selection pane="topRight" activeCell="M409" activeCellId="0" sqref="M409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.73"/>
@@ -5116,7 +5116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>119</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="103.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>124</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>147</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>168</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>172</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>180</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>187</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>191</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="32.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>195</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>207</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>217</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>234</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>237</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>285</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>1248</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>1253</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>1257</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>1261</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>1264</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>1267</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>1269</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
         <v>1273</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
         <v>1346</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>1349</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>1476</v>
       </c>
@@ -20424,7 +20424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>1480</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>20</v>
       </c>
       <c r="M393" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N393" s="0" t="n">
         <v>2</v>
@@ -21056,7 +21056,37 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P408"/>
+  <autoFilter ref="A1:P408">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="14"/>
+        <filter val="15"/>
+        <filter val="16"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="19"/>
+        <filter val="2"/>
+        <filter val="21"/>
+        <filter val="22"/>
+        <filter val="23"/>
+        <filter val="24"/>
+        <filter val="25"/>
+        <filter val="26"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
